--- a/public/docs/template_peserta_ujian.xlsx
+++ b/public/docs/template_peserta_ujian.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pepak\public\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nama</t>
   </si>
@@ -35,19 +35,37 @@
     <t>Kelas</t>
   </si>
   <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>00220391231</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>(Nama Murid)</t>
+  </si>
+  <si>
+    <t>(Nomor NISN, Maksimal 11 angka)</t>
+  </si>
+  <si>
+    <t>(Data Kelas)</t>
+  </si>
+  <si>
+    <t>(Password Akun murid, Angka maksimal 10)</t>
+  </si>
+  <si>
+    <t>Setyo</t>
+  </si>
+  <si>
+    <t>0099882</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Ini Contoh pengisian data</t>
+  </si>
+  <si>
+    <t>Baris ini tidak akan masuk ke sistem</t>
   </si>
 </sst>
 </file>
@@ -71,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +99,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,11 +143,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +431,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,199 +456,153 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
